--- a/test/Input.xlsx
+++ b/test/Input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve">Investigation / study name</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Save Memory</t>
   </si>
   <si>
+    <t xml:space="preserve">Fast method (inaccurate at high Q)</t>
+  </si>
+  <si>
     <t xml:space="preserve">output filename</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">memSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastMethod</t>
   </si>
   <si>
     <t xml:space="preserve">ofname</t>
@@ -304,19 +310,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -353,50 +360,55 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="5.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.1</v>
@@ -423,16 +435,20 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.1</v>
@@ -459,16 +475,20 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>26</v>
+      <c r="K6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.1</v>
@@ -495,16 +515,20 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>28</v>
+      <c r="K7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.1</v>
@@ -531,16 +555,20 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>30</v>
+      <c r="K8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.1</v>
@@ -567,21 +595,14 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>32</v>
+      <c r="K9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
